--- a/WSC/Test Report/SLCM/WSC SLCM_Academics _New Screens.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Academics _New Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Class Scheduling Tool" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="157">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Executed By</t>
   </si>
   <si>
     <t>S#</t>
@@ -56,9 +59,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -749,10 +752,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -945,13 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,16 +1274,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1427,14 +1430,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1447,19 +1447,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,10 +1477,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2010,10 +2025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2071,8 +2086,12 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2084,16 +2103,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2102,17 +2115,17 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="90" spans="1:11">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2121,10 +2134,16 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:11">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2135,12 +2154,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2152,8 +2167,12 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2164,518 +2183,531 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A13" s="9">
-        <v>3</v>
+      <c r="A13" s="8">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A14" s="9">
-        <v>4</v>
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="9">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A16" s="9">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" spans="1:11">
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3">
-        <v>281</v>
-      </c>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="3">
-        <v>283</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A17" s="9">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>281</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3">
+        <v>283</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A18" s="9">
-        <v>8</v>
+      <c r="A18" s="8">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
+      <c r="E18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A19" s="9">
-        <v>9</v>
+      <c r="A19" s="8">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A20" s="9">
-        <v>10</v>
+      <c r="A20" s="8">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A21" s="9">
-        <v>11</v>
+      <c r="A21" s="8">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
+      <c r="E21" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A22" s="9">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A22" s="8">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>26</v>
+      <c r="E22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:11">
-      <c r="A23" s="9">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A23" s="8">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24" s="9">
-        <v>14</v>
+      <c r="A24" s="8">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="75" spans="1:11">
-      <c r="A25" s="9">
-        <v>15</v>
+    <row r="25" s="1" customFormat="1" spans="1:11">
+      <c r="A25" s="8">
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="3">
-        <v>280</v>
-      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="3">
-        <v>282</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+    <row r="26" s="1" customFormat="1" ht="75" spans="1:11">
+      <c r="A26" s="8">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+      <c r="E26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3">
+        <v>280</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="3">
+        <v>282</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:1">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="16" t="s">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>26</v>
+      <c r="D30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2688,7 +2720,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2704,45 +2736,49 @@
     <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="13" customFormat="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" s="13" customFormat="1" spans="1:9">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2752,43 +2788,43 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:9">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:9">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2797,12 +2833,8 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2812,8 +2844,12 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2822,496 +2858,504 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" s="17" customFormat="1" ht="30" spans="1:9">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="19" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" s="18" customFormat="1" ht="30" spans="1:9">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="E10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:9">
-      <c r="A12" s="9">
-        <v>2</v>
+      <c r="A12" s="8">
+        <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A13" s="9">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:9">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="75" spans="1:9">
-      <c r="A14" s="9">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A15" s="9">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="75" spans="1:9">
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A16" s="9">
-        <v>6</v>
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A17" s="9">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
+      <c r="E17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A18" s="9">
-        <v>8</v>
+      <c r="A18" s="8">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
+      <c r="E18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:9">
-      <c r="A19" s="9">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A19" s="8">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A20" s="9">
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A20" s="8">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
+      <c r="E21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A21" s="9">
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A22" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:9">
-      <c r="A22" s="9">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>26</v>
+      <c r="E22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>26</v>
+        <v>114</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
-      <c r="A23" s="9">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A23" s="8">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:9">
-      <c r="A24" s="9">
-        <v>14</v>
+      <c r="A24" s="8">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A25" s="9">
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="8">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A26" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="E26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:1">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="16" t="s">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="3"/>
+      <c r="D31" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3321,10 +3365,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3346,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3382,8 +3426,12 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3395,16 +3443,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3413,29 +3455,33 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:11">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:11">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3446,12 +3492,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3463,8 +3505,12 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3475,410 +3521,423 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="9">
-        <v>2</v>
+      <c r="A12" s="8">
+        <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>139</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A13" s="9">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>91</v>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>142</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A14" s="9">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A14" s="8">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3">
-        <v>290</v>
-      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3">
-        <v>290</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A15" s="9">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A15" s="8">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3">
+        <v>290</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="3">
+        <v>290</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A16" s="9">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A16" s="8">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A17" s="9">
-        <v>7</v>
+      <c r="A17" s="8">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A18" s="9">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A18" s="8">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="9">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A19" s="8">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A20" s="9">
-        <v>10</v>
+    <row r="20" s="1" customFormat="1" spans="1:11">
+      <c r="A20" s="8">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
+        <v>154</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>26</v>
+        <v>154</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="90" spans="1:11">
-      <c r="A21" s="9">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A21" s="8">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3">
-        <v>291</v>
-      </c>
+      <c r="E21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="3">
-        <v>291</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="12"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
+    <row r="22" s="1" customFormat="1" ht="90" spans="1:11">
+      <c r="A22" s="8">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3">
+        <v>291</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="3">
+        <v>291</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:1">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="16" t="s">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="13"/>
+      <c r="B25" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
+      <c r="D26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
